--- a/biology/Zoologie/Hypsibius/Hypsibius.xlsx
+++ b/biology/Zoologie/Hypsibius/Hypsibius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypsibius est un genre de tardigrades de la famille des Hypsibiidae.
 </t>
@@ -511,21 +523,23 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Degma, Bertolani et Guidetti, 2017[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Degma, Bertolani et Guidetti, 2017 :
 Hypsibius allisoni Horning, Schuster &amp; Grigarick, 1978
 Hypsibius antonovae (Biserov, 1990)
-Hypsibius arcticus (Murray, 1907) (proposé au genre Ramazzottius[2])
+Hypsibius arcticus (Murray, 1907) (proposé au genre Ramazzottius)
 Hypsibius biscuitiformis Bartoš, 1960
 Hypsibius calcaratus Bartoš, 1935
 Hypsibius camelopardalis Ramazzotti &amp; Maucci, 1983
 Hypsibius choucoutiensis Rahm, 1937
-Hypsibius conifer Mihelčič, 1938 (proposé au genre Ramazzottius[2])
+Hypsibius conifer Mihelčič, 1938 (proposé au genre Ramazzottius)
 Hypsibius convergens (Urbanowicz, 1925)
 Hypsibius conwentzii Kaczmarek, Parnikoza, Gawlak, Esefeld, Peter, Kozeretska &amp; Roszkowska, 2017
 Hypsibius dujardini (Doyère, 1840)
-Hypsibius fuhrmanni (Heinis, 1914) (suspecté d'invalidité[2])
+Hypsibius fuhrmanni (Heinis, 1914) (suspecté d'invalidité)
 Hypsibius giusepperamazzotti Sudzuki, 1975
 Hypsibius heardensis Miller, McInnes &amp; Bergstrom, 2005
 Hypsibius hypostomus Bartoš, 1935
@@ -557,7 +571,7 @@
 Hypsibius stiliferus Abe, 2004
 Hypsibius thaleri Dastych, 2004
 Hypsibius valentinae Pilato, Kiosya, Lisi &amp; Sabella, 2012
-Une étude de 2018 identifie l'espèce de laboratoire Hypsibius exemplaris comme distincte d'Hypsibius dujardini[2].
+Une étude de 2018 identifie l'espèce de laboratoire Hypsibius exemplaris comme distincte d'Hypsibius dujardini.
 </t>
         </is>
       </c>
@@ -586,7 +600,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ehrenberg, 1848 : Fortgestze Beobachtungen über jetzt herreschende atmospärische mikroscopische etc. mit Nachtrag und Novarum specierum Diagnosis. Bericht über die zur Bekanntmachung geeigneten Verhanlungen der Koniglichen Preussischen Akademie der Wissenschaften zu Berlin, vol. 13, p. 370–381.</t>
         </is>
